--- a/DataTemplate/DataTemplate.xlsx
+++ b/DataTemplate/DataTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="10020" activeTab="1"/>
+    <workbookView windowWidth="18768" windowHeight="7872" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Normal_Shock_Data" sheetId="2" r:id="rId1"/>
@@ -43,12 +43,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -56,22 +56,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,120 +200,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +222,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +416,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,25 +468,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -506,157 +498,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -976,13 +985,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.71296296296296" customWidth="1"/>
     <col min="2" max="2" width="7.71296296296296" customWidth="1"/>
@@ -1011,29 +1020,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2">
-        <v>0.41214</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3">
-        <v>0.38012</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4">
-        <v>0.39504</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5">
-        <v>0.73971</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6">
-        <v>0.37914</v>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1045,13 +1079,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.71296296296296" customWidth="1"/>
     <col min="2" max="3" width="7.71296296296296" customWidth="1"/>
@@ -1083,67 +1117,125 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
+        <v>1.491204782</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.218043436</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.051542093</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>1.488</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.112100418</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>1.221370384</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="3">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>1.721173612</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>1.113969476</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="G9" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>3.093380644</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="G10" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>1.153141529</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="G11" s="3">
+        <v>35.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataTemplate/DataTemplate.xlsx
+++ b/DataTemplate/DataTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18768" windowHeight="7872" activeTab="1"/>
+    <workbookView windowWidth="14831" windowHeight="7644"/>
   </bookViews>
   <sheets>
     <sheet name="Normal_Shock_Data" sheetId="2" r:id="rId1"/>
@@ -43,12 +43,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -63,39 +63,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,8 +107,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -116,7 +169,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,13 +193,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,74 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -222,25 +215,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,55 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,97 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,39 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,6 +433,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,12 +459,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,10 +512,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,141 +524,140 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -987,8 +979,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1081,7 +1073,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1125,7 +1117,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>29</v>
       </c>
     </row>
@@ -1138,7 +1130,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>10.5</v>
       </c>
     </row>
@@ -1151,7 +1143,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>25.5</v>
       </c>
     </row>
@@ -1164,7 +1156,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1177,7 +1169,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>21.5</v>
       </c>
     </row>
@@ -1190,7 +1182,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>39</v>
       </c>
     </row>
@@ -1203,7 +1195,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>38.5</v>
       </c>
     </row>
@@ -1213,7 +1205,7 @@
         <v>1.113969476</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>45</v>
       </c>
     </row>
@@ -1223,7 +1215,7 @@
         <v>3.093380644</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>13</v>
       </c>
     </row>
@@ -1233,7 +1225,7 @@
         <v>1.153141529</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>35.5</v>
       </c>
     </row>

--- a/DataTemplate/DataTemplate.xlsx
+++ b/DataTemplate/DataTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14831" windowHeight="7644"/>
+    <workbookView windowWidth="23028" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Normal_Shock_Data" sheetId="2" r:id="rId1"/>
@@ -62,6 +62,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -77,6 +116,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -85,7 +131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,9 +139,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,89 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -205,6 +175,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,6 +215,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -222,180 +396,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +406,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,65 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -506,16 +486,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,133 +524,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,7 +980,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
